--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
@@ -1480,7 +1480,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  “Mahuizzotia”. Strength and honor? 
+    <t xml:space="preserve">[name="Kal’tsit"]  'Mahuizzotia'. Strength and honor? 
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Oh, also! Gavial, we changed the tribe’s name now! “Wilderness’s Will” is now “Gavial’s Will”!
+    <t xml:space="preserve">[name="Tomimi"]  Oh, also! Gavial, we changed the tribe’s name now! 'Wilderness’s Will' is now 'Gavial’s Will'!
 </t>
   </si>
   <si>

--- a/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
+++ b/story/Activity Story 活动剧情/act12d0 Gavial the Great Chief Returns 密林悍将归来 帰還！密林の長/level_act12d0_01_end.xlsx
@@ -1340,7 +1340,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  Cue. Titecuani! She... she’s something.
+    <t xml:space="preserve">[name="Archosauria A"]  Cue. Titecuani! She... she's something.
 </t>
   </si>
   <si>
@@ -1360,7 +1360,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria B"]  Wait! Look close! That face, that hair! You’re Gavial, aren’t you?!
+    <t xml:space="preserve">[name="Archosauria B"]  Wait! Look close! That face, that hair! You're Gavial, aren't you?!
 </t>
   </si>
   <si>
@@ -1368,7 +1368,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Archosauria A"]  It-It’s Gavial! Gavial’s back!  Brothers! Go, hurry! Tell Clan Leader Eunectes!
+    <t xml:space="preserve">[name="Archosauria A"]  It-It's Gavial! Gavial's back!  Brothers! Go, hurry! Tell Clan Leader Eunectes!
 </t>
   </si>
   <si>
@@ -1380,11 +1380,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Thank goodness! If you’d been just a little later, they would’ve taken me.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Where’s our pilot guy? Uh, his name, uh, Dylan! Where’s Dylan?
+    <t xml:space="preserve">[name="Lancet-2"]  Thank goodness! If you'd been just a little later, they would've taken me.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Where's our pilot guy? Uh, his name, uh, Dylan! Where's Dylan?
 </t>
   </si>
   <si>
@@ -1396,7 +1396,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Good. Drag him over. I’ll take a look at the damage.
+    <t xml:space="preserve">[name="Gavial"]  Good. Drag him over. I'll take a look at the damage.
 </t>
   </si>
   <si>
@@ -1428,7 +1428,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  ...Looks like they didn’t get any kills on us, huh? Wow, who knew this guy’s underwear would be so gaudy... heh. Yeah, let him have his beauty sleep and he’ll wake himself up.
+    <t xml:space="preserve">[name="Gavial"]  ...Looks like they didn't get any kills on us, huh? Wow, who knew this guy's underwear would be so gaudy... heh. Yeah, let him have his beauty sleep and he'll wake himself up.
 </t>
   </si>
   <si>
@@ -1444,7 +1444,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Correct. Before they noticed me, I sighted them from the deck. They found the aircraft’s engine, pulled it out, and carried it away with them. 
+    <t xml:space="preserve">[name="Lancet-2"]  Correct. Before they noticed me, I sighted them from the deck. They found the aircraft's engine, pulled it out, and carried it away with them. 
 </t>
   </si>
   <si>
@@ -1452,19 +1452,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hoo, boy. Yeah, that’s a hole. I don’t really get how these things actually work, but, uh, I’m guessing this means it won’t fly now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Yes, it won’t fly now.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh? Doctor, you don’t look too good. 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="None of this looks too good.;......;Kal’tsit’s gonna kill me!",values="1;2;3")]
+    <t xml:space="preserve">[name="Gavial"]  Hoo, boy. Yeah, that's a hole. I don't really get how these things actually work, but, uh, I'm guessing this means it won't fly now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Yes, it won't fly now.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh? Doctor, you don't look too good. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="None of this looks too good.;......;Kal'tsit's gonna kill me!",values="1;2;3")]
 </t>
   </si>
   <si>
@@ -1472,43 +1472,43 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  A letter?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah. From my homeland. They’re holding the Mahuizzotia again soon.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  'Mahuizzotia'. Strength and honor? 
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh, you know it? Yeah, it’s what they call the ceremony where they choose the next Great Chief.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  I haven’t heard anyone use that language in a long time.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  As I recall, though, you left your homeland and then came to Rhodes Island.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah... hell, no, I’m not going out to be the next Great Chief. Just, the brat seems like she really wants me to come back for a bit, and I haven’t been back in a bit, and...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  I also recall you saying that you left because you were ostracized. If so, the election of the chief shouldn’t concern you at all.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah... hell, no, I’m not going out to be the next Great Chieftain. Just, the brat seems like she really wants me to come back for a bit, and I haven’t been back in a bit, and...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Homesickness?
+    <t xml:space="preserve">[name="Kal'tsit"]  A letter?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah. From my homeland. They're holding the Mahuizzotia again soon.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  'Mahuizzotia.' Strength and honor? 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Huh, you know it? Yeah, it's what they call the ceremony where they choose the next Great Chief.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I haven't heard anyone use that language in a long time.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  As I recall, though, you left your homeland and then came to Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah... hell, no, I'm not going out to be the next Great Chief. Just, the brat seems like she really wants me to come back for a bit, and I haven't been back in a bit, and...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  I also recall you saying that you left because you were ostracized. If so, the election of the chief shouldn't concern you at all.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah... hell, no, I'm not going out to be the next Great Chieftain. Just, the brat seems like she really wants me to come back for a bit, and I haven't been back in a bit, and...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Homesickness?
 </t>
   </si>
   <si>
@@ -1516,35 +1516,35 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  And why are you requesting to bring Dr. {@nickname}? From a biological standpoint, the Doctor couldn’t pass for one of you.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  The Doctor’s been working so hard, y’know? I figured it’d be a nice little vacation.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  And what was the purpose of this aircraft requisition form, Blaze?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Gavial’s old place is way out in the middle of nowhere Sargon! Who’d walk that far?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  So instead of walking, you want to use a low-altitude aircraft and risk detection by the Sargon authorities.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  Wait, lemme explain! When I say nowhere, I mean we looked at the maps and Gavial’s is one of the lest densely populated regions of Sargon. From the intel we’ve gathered, Sargon doesn’t even station any forces there.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  You’re correct that the region is Sargon’s in name only. You’ve done your homework.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  And now, seeing as you’ve made all your plans, why have you come to me?
+    <t xml:space="preserve">[name="Kal'tsit"]  And why are you requesting to bring Dr. {@nickname}? From a biological standpoint, the Doctor couldn't pass for one of you.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  The Doctor's been working so hard, y'know? I figured it'd be a nice little vacation.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And what was the purpose of this aircraft requisition form, Blaze?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Gavial's old place is way out in the middle of nowhere Sargon! Who'd walk that far?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  So instead of walking, you want to use a low-altitude aircraft and risk detection by the Sargon authorities.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  Wait, lemme explain! When I say nowhere, I mean we looked at the maps and Gavial's is one of the lest densely populated regions of Sargon. From the intel we've gathered, Sargon doesn't even station any forces there.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  You're correct that the region is Sargon's in name only. You've done your homework.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And now, seeing as you've made all your plans, why have you come to me?
 </t>
   </si>
   <si>
@@ -1552,19 +1552,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  ......
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Are we good or not, Kal’tsit? If not, we’ll forget it and move on.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  (Quietly) Doctor, maybe we should just call it off. There’s no way Kal’tsit’s gonna agree...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Fine. I’ve approved it.
+    <t xml:space="preserve">[name="Kal'tsit"]  ......
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Are we good or not, Kal'tsit? If not, we'll forget it and move on.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  (Quietly) Doctor, maybe we should just call it off. There's no way Kal'tsit's gonna agree...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Fine. I've approved it.
 </t>
   </si>
   <si>
@@ -1572,31 +1572,31 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Gavial, you’ve never properly introduced us to your hometown before.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  And considering your standing as a core member of Rhodes Island, and the initiative you showed in making this proposal, we can afford to grant Dr. {@nickname} this leave, given accompaniment by an elite operator.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Blaze"]  That’s what I like to hear!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Further, I will treat this operation as an on-site field investigation. You may freely select any off-duty operators.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Amiya has been very busy as of late. She is not allowed to go, whether she wants to or not. You will have to tell her this yourself.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Keep in mind that you are technically entering Sargon territory. Rhodes Island has very few offices in Sargon. Don’t make trouble for yourselves, or for Rhodes Island.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Kal’tsit"]  Further, Rhodes Island’s low-altitude aircraft are tremendously important to us, and Sargon is a rough environment. I trust you to bring the vehicle back safe and sound, Dr. {@nickname}.
+    <t xml:space="preserve">[name="Kal'tsit"]  Gavial, you've never properly introduced us to your hometown before.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  And considering your standing as a core member of Rhodes Island, and the initiative you showed in making this proposal, we can afford to grant Dr. {@nickname} this leave, given accompaniment by an elite operator.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Blaze"]  That's what I like to hear!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Further, I will treat this operation as an on-site field investigation. You may freely select any off-duty operators.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Amiya has been very busy as of late. She is not allowed to go, whether she wants to or not. You will have to tell her this yourself.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Keep in mind that you are technically entering Sargon territory. Rhodes Island has very few offices in Sargon. Don't make trouble for yourselves, or for Rhodes Island.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Kal'tsit"]  Further, Rhodes Island's low-altitude aircraft are tremendously important to us, and Sargon is a rough environment. I trust you to bring the vehicle back safe and sound, Dr. {@nickname}.
 </t>
   </si>
   <si>
@@ -1604,7 +1604,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, relax, Doctor! This is my homeland. I know it like the back of my hand. Lancet-2, we’ve just gotta find the kiddos who stole the engine and steal it right back, yeah?
+    <t xml:space="preserve">[name="Gavial"]  Hey, relax, Doctor! This is my homeland. I know it like the back of my hand. Lancet-2, we've just gotta find the kiddos who stole the engine and steal it right back, yeah?
 </t>
   </si>
   <si>
@@ -1616,11 +1616,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  On that note, there’s some emergency maintenance I must carry out before any of this ends up exploding. Please hold...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Huh? Them? Technology? First I’ve heard of any of us getting along with technology. We’re all knuckleheads by nature.
+    <t xml:space="preserve">[name="Lancet-2"]  On that note, there's some emergency maintenance I must carry out before any of this ends up exploding. Please hold...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Huh? Them? Technology? First I've heard of any of us getting along with technology. We're all knuckleheads by nature.
 </t>
   </si>
   <si>
@@ -1628,11 +1628,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  ...Wait, hold on. I bet if they’re her minions...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Gavial, I’m hungry!
+    <t xml:space="preserve">[name="Gavial"]  ...Wait, hold on. I bet if they're her minions...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Gavial, I'm hungry!
 </t>
   </si>
   <si>
@@ -1644,7 +1644,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  But some systems were damaged by the emergency landing. The storage compartment is currently sealed. I’ll need some time to unlock it again...
+    <t xml:space="preserve">[name="Lancet-2"]  But some systems were damaged by the emergency landing. The storage compartment is currently sealed. I'll need some time to unlock it again...
 </t>
   </si>
   <si>
@@ -1652,11 +1652,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Ceobe"]  But I’m hungry nowww!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Fine, then. Let’s go and...
+    <t xml:space="preserve">[name="Ceobe"]  But I'm hungry nowww!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Fine, then. Let's go and...
 </t>
   </si>
   <si>
@@ -1668,11 +1668,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Wow, Gavial! You’re actually here!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="???"]  Gavial, your hair’s gotten long!
+    <t xml:space="preserve">[name="???"]  Wow, Gavial! You're actually here!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="???"]  Gavial, your hair's gotten long!
 </t>
   </si>
   <si>
@@ -1680,11 +1680,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="???"]  Gavial, you have a weapon now! How come? It doesn’t look very good for hitting people!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Gurgh! Yes, Tomimi, it’s me, you’re not imagining it. Just let go of me first!
+    <t xml:space="preserve">[name="???"]  Gavial, you have a weapon now! How come? It doesn't look very good for hitting people!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Gurgh! Yes, Tomimi, it's me, you're not imagining it. Just let go of me first!
 </t>
   </si>
   <si>
@@ -1712,15 +1712,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’m fine, I’m fine. Never better.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria"]  Gavial! You’re really back!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria"]  It’s good to see you alive and well after all, Gavial!
+    <t xml:space="preserve">[name="Gavial"]  I'm fine, I'm fine. Never better.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria"]  Gavial! You're really back!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria"]  It's good to see you alive and well after all, Gavial!
 </t>
   </si>
   <si>
@@ -1728,11 +1728,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Dream on. I’m only on leave. Came back to see how things are going.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Decision(options="Gavial, didn’t you say you were ostracized from your tribe?", values="1")]
+    <t xml:space="preserve">[name="Gavial"]  Dream on. I'm only on leave. Came back to see how things are going.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Decision(options="Gavial, didn't you say you were ostracized from your tribe?", values="1")]
 </t>
   </si>
   <si>
@@ -1752,7 +1752,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Not bad. I guess I’ll write to you in Sargonian from now on, then.
+    <t xml:space="preserve">[name="Gavial"]  Not bad. I guess I'll write to you in Sargonian from now on, then.
 </t>
   </si>
   <si>
@@ -1760,7 +1760,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, this one’s Dr. {@nickname}. Doctor, for short. Counts as my boss, I guess?
+    <t xml:space="preserve">[name="Gavial"]  Oh, this one's Dr. {@nickname}. Doctor, for short. Counts as my boss, I guess?
 </t>
   </si>
   <si>
@@ -1768,7 +1768,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Gavial’s boss... are you actually stronger than her?
+    <t xml:space="preserve">[name="Tomimi"]  Gavial's boss... are you actually stronger than her?
 </t>
   </si>
   <si>
@@ -1776,7 +1776,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  So how’d you get to be Gavial’s boss, then?
+    <t xml:space="preserve">[name="Tomimi"]  So how'd you get to be Gavial's boss, then?
 </t>
   </si>
   <si>
@@ -1788,11 +1788,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  I’ve got bigger problems, Tomimi. Zumama’s people stole our aircraft engine after the crash. She’s got minions now?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  What’s an aircraft engine? Is it like one of those motory things? Wait, um... huh? Zumama?
+    <t xml:space="preserve">[name="Gavial"]  I've got bigger problems, Tomimi. Zumama's people stole our aircraft engine after the crash. She's got minions now?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  What's an aircraft engine? Is it like one of those motory things? Wait, um... huh? Zumama?
 </t>
   </si>
   <si>
@@ -1800,15 +1800,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Ah, um, Zumama’s the chief of a tribe now. There’s a lot of people who think she’ll be the next Great Chief, too.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Aah... So that’s how it is. Could’ve been her crew that took us down, too. She’s the only one who was into those weird wacky gizmo weapons in the first place.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  ...Yeah, yeah!  If you wanna find Zumama, the ceremony’s starting tomorrow, and every aspiring Chief is gonna be at the Temple. Zumama’ll be there for sure.
+    <t xml:space="preserve">[name="Tomimi"]  Ah, um, Zumama's the chief of a tribe now. There's a lot of people who think she'll be the next Great Chief, too.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Aah... So that's how it is. Could've been her crew that took us down, too. She's the only one who was into those weird wacky gizmo weapons in the first place.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  ...Yeah, yeah!  If you wanna find Zumama, the ceremony's starting tomorrow, and every aspiring Chief is gonna be at the Temple. Zumama'll be there for sure.
 </t>
   </si>
   <si>
@@ -1816,7 +1816,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Hey, didn’t you say your cute little noggin wanted to compete for it too? Go on, show me how far you’ve come in all these years!
+    <t xml:space="preserve">[name="Gavial"]  Hey, didn't you say your cute little noggin wanted to compete for it too? Go on, show me how far you've come in all these years!
 </t>
   </si>
   <si>
@@ -1836,7 +1836,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Nice work, Lancet-2. Yeah, we’re heading to the Temple next.
+    <t xml:space="preserve">[name="Gavial"]  Nice work, Lancet-2. Yeah, we're heading to the Temple next.
 </t>
   </si>
   <si>
@@ -1844,19 +1844,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  I like to think I’m ready for it, but it still hurts my heart a little whenever I get that sort of reaction. Not that I technically have a heart...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Aircraft won’t explode now, right?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  It won’t, but it’s not exactly ideal to just leave it here...
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Yeah, true. I don’t want Kal’tsit giving me the death stare either.
+    <t xml:space="preserve">[name="Lancet-2"]  I like to think I'm ready for it, but it still hurts my heart a little whenever I get that sort of reaction. Not that I technically have a heart...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Aircraft won't explode now, right?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  It won't, but it's not exactly ideal to just leave it here...
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Yeah, true. I don't want Kal'tsit giving me the death stare either.
 </t>
   </si>
   <si>
@@ -1864,7 +1864,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Your tribe? Huh? Hell, I didn’t realize. So our little girl’s a full-grown clan leader now, huh?
+    <t xml:space="preserve">[name="Gavial"]  Your tribe? Huh? Hell, I didn't realize. So our little girl's a full-grown clan leader now, huh?
 </t>
   </si>
   <si>
@@ -1876,7 +1876,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Oh, also! Gavial, we changed the tribe’s name now! 'Wilderness’s Will' is now 'Gavial’s Will'!
+    <t xml:space="preserve">[name="Tomimi"]  Oh, also! Gavial, we changed the tribe's name now! 'Wilderness's Will' is now 'Gavial's Will'!
 </t>
   </si>
   <si>
@@ -1884,11 +1884,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Tomimi"]  Because we all think you’re the best, Gavial!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Uh—*cough* *cough*—okay, whatever. I’ll leave you to it.
+    <t xml:space="preserve">[name="Tomimi"]  Because we all think you're the best, Gavial!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Uh—*cough* *cough*—okay, whatever. I'll leave you to it.
 </t>
   </si>
   <si>
@@ -1904,7 +1904,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Lancet-2"]  I understand you’re going to meet a large number of people. I would only cause problems if I went.
+    <t xml:space="preserve">[name="Lancet-2"]  I understand you're going to meet a large number of people. I would only cause problems if I went.
 </t>
   </si>
   <si>
@@ -1912,19 +1912,19 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What? You’re not gonna go see the ceremony? It’s a hell of a treat.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Lancet-2"]  Don’t worry about it. I prefer the quieter side of things, anyway.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Suit yourself. I guess it’ll be just me, the Doctor, and, uh, Kay going, then.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Tomimi"]  And me! And I’ll bring some of my people with us too!
+    <t xml:space="preserve">[name="Gavial"]  What? You're not gonna go see the ceremony? It's a hell of a treat.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Lancet-2"]  Don't worry about it. I prefer the quieter side of things, anyway.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Suit yourself. I guess it'll be just me, the Doctor, and, uh, Kay going, then.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Tomimi"]  And me! And I'll bring some of my people with us too!
 </t>
   </si>
   <si>
@@ -1936,27 +1936,27 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  What’s up, Doctor?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Hm? Wait up. Where’d Kay go? !
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh, huh. You’re right, she was just here. Where’d that little rascal run off to?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Archosauria"]  When you say Kay, do you mean the one jabbering away over there like she’s half-possessed?
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  I’m not gonna let you hurt the Doctor, Reunion!
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[name="Ceobe"]  Nooo! Don’t steal my honey biscuits! Get back here!
+    <t xml:space="preserve">[name="Gavial"]  What's up, Doctor?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Hm? Wait up. Where'd Kay go? !
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Gavial"]  Oh, huh. You're right, she was just here. Where'd that little rascal run off to?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Archosauria"]  When you say Kay, do you mean the one jabbering away over there like she's half-possessed?
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  I'm not gonna let you hurt the Doctor, Reunion!
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[name="Ceobe"]  Nooo! Don't steal my honey biscuits! Get back here!
 </t>
   </si>
   <si>
@@ -1964,7 +1964,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Oh! Shit! I forgot to warn you! There’s a hell of a lot of mushrooms and fruits growing wild along the road here, and more than most of them you can’t eat. If you do, you end up like that.
+    <t xml:space="preserve">[name="Gavial"]  Oh! Shit! I forgot to warn you! There's a hell of a lot of mushrooms and fruits growing wild along the road here, and more than most of them you can't eat. If you do, you end up like that.
 </t>
   </si>
   <si>
@@ -1972,7 +1972,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  Uh, damn it. Okay. Go tie her up and take her back with you, Lancet-2. She’ll be fine after a while, probably.
+    <t xml:space="preserve">[name="Gavial"]  Uh, damn it. Okay. Go tie her up and take her back with you, Lancet-2. She'll be fine after a while, probably.
 </t>
   </si>
   <si>
@@ -1988,7 +1988,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Gavial"]  It’s a long way to the Temple from here, and the rainforest won’t have anywhere decent to sleep. Get ready to spend the night in the open.
+    <t xml:space="preserve">[name="Gavial"]  It's a long way to the Temple from here, and the rainforest won't have anywhere decent to sleep. Get ready to spend the night in the open.
 </t>
   </si>
   <si>
